--- a/doc/Dokumen Penting/skrispsi.xlsx
+++ b/doc/Dokumen Penting/skrispsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18195" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="18195" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="35">
   <si>
     <t>mode</t>
   </si>
@@ -74,13 +74,92 @@
   <si>
     <t>&amp;</t>
   </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Melihat data pribadi pengguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengubah data pribadi pengguna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melihat daftar API keys </t>
+  </si>
+  <si>
+    <t>Menambahkan API key</t>
+  </si>
+  <si>
+    <t>Mengubah API key</t>
+  </si>
+  <si>
+    <t>Melihat daftar rute</t>
+  </si>
+  <si>
+    <t>Melihat informasi rute secara detail</t>
+  </si>
+  <si>
+    <t>Menambahkan rute</t>
+  </si>
+  <si>
+    <t>Mengubah rute</t>
+  </si>
+  <si>
+    <t>Impor data KML</t>
+  </si>
+  <si>
+    <t>Menghapus data geografis suatu rute</t>
+  </si>
+  <si>
+    <t>Menghapus rute</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Menjalankan aplikasi (halaman </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +202,535 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sistem Kini</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Melihat data pribadi pengguna</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mengubah data pribadi pengguna </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Melihat daftar API keys </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Menambahkan API key</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mengubah API key</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Melihat daftar rute</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Melihat informasi rute secara detail</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Menambahkan rute</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mengubah rute</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Impor data KML</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Menghapus data geografis suatu rute</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Menghapus rute</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Logout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$20:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>183.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>143.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sistem Usulan</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Login</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Melihat data pribadi pengguna</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mengubah data pribadi pengguna </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Melihat daftar API keys </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Menambahkan API key</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mengubah API key</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Melihat daftar rute</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Melihat informasi rute secara detail</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Menambahkan rute</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mengubah rute</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Impor data KML</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Menghapus data geografis suatu rute</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Menghapus rute</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Logout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$20:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>193.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="69731072"/>
+        <c:axId val="69737088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69731072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69737088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69737088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69731072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sistem Kini</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$34:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Register</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Menjalankan aplikasi (halaman login)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$34:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4678.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1324.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sistem Usulan</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$34:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Register</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Menjalankan aplikasi (halaman login)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$34:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1198.4000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="43569536"/>
+        <c:axId val="43571456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43569536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43571456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43571456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43569536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64778</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,15 +1020,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M34" activeCellId="2" sqref="A34:A35 G34:G35 M34:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -464,691 +1073,691 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>1170</v>
+        <v>198</v>
       </c>
       <c r="C2">
-        <v>1220</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>1180</v>
+        <v>190</v>
       </c>
       <c r="E2">
-        <v>1210</v>
+        <v>195</v>
       </c>
       <c r="F2">
-        <v>1212</v>
+        <v>193</v>
       </c>
       <c r="G2">
         <f>AVERAGE(B2:F2)</f>
-        <v>1198.4000000000001</v>
+        <v>193.6</v>
       </c>
       <c r="I2">
-        <v>1298</v>
+        <v>176</v>
       </c>
       <c r="J2">
-        <v>1382</v>
+        <v>178</v>
       </c>
       <c r="K2">
-        <v>1312</v>
+        <v>198</v>
       </c>
       <c r="L2">
-        <v>1308</v>
+        <v>186</v>
       </c>
       <c r="M2">
-        <v>1322</v>
+        <v>181</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N16" si="0">AVERAGE(I2:M2)</f>
-        <v>1324.4</v>
+        <f t="shared" ref="N2:N15" si="0">AVERAGE(I2:M2)</f>
+        <v>183.8</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>193.6</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="L3">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="M3">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>183.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="G4">
         <f>AVERAGE(B4:F4)</f>
-        <v>28</v>
+        <v>225.4</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K4">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="M4">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>AVERAGE(I4:M4)</f>
+        <v>128.4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <f>AVERAGE(B5:F5)</f>
+        <v>23.6</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(I5:M5)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B6:F6)</f>
+        <v>61.2</v>
+      </c>
+      <c r="I6">
+        <v>138</v>
+      </c>
+      <c r="J6">
+        <v>137</v>
+      </c>
+      <c r="K6">
+        <v>141</v>
+      </c>
+      <c r="L6">
+        <v>139</v>
+      </c>
+      <c r="M6">
+        <v>145</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE(I6:M6)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(B7:F7)</f>
+        <v>55.6</v>
+      </c>
+      <c r="I7">
+        <v>61</v>
+      </c>
+      <c r="J7">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>57</v>
+      </c>
+      <c r="L7">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(I7:M7)</f>
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B8:F8)</f>
         <v>25.4</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>37</v>
       </c>
-      <c r="K5">
+      <c r="K8">
         <v>32</v>
       </c>
-      <c r="L5">
+      <c r="L8">
         <v>37</v>
       </c>
-      <c r="M5">
+      <c r="M8">
         <v>27</v>
       </c>
-      <c r="N5">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>32.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(B9:F9)</f>
+        <v>38.6</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(I9:M9)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G18" si="1">AVERAGE(B6:F6)</f>
-        <v>23.6</v>
-      </c>
-      <c r="I6">
-        <v>35</v>
-      </c>
-      <c r="J6">
-        <v>34</v>
-      </c>
-      <c r="K6">
-        <v>37</v>
-      </c>
-      <c r="L6">
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>144</v>
+      </c>
+      <c r="D10">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>105</v>
+      </c>
+      <c r="F10">
+        <v>136</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(B10:F10)</f>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="I10">
+        <v>154</v>
+      </c>
+      <c r="J10">
+        <v>157</v>
+      </c>
+      <c r="K10">
+        <v>159</v>
+      </c>
+      <c r="L10">
+        <v>151</v>
+      </c>
+      <c r="M10">
+        <v>151</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(I10:M10)</f>
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>133</v>
+      </c>
+      <c r="D11">
+        <v>144</v>
+      </c>
+      <c r="E11">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>135</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE(B11:F11)</f>
+        <v>130.4</v>
+      </c>
+      <c r="I11">
+        <v>145</v>
+      </c>
+      <c r="J11">
+        <v>161</v>
+      </c>
+      <c r="K11">
+        <v>146</v>
+      </c>
+      <c r="L11">
+        <v>144</v>
+      </c>
+      <c r="M11">
+        <v>155</v>
+      </c>
+      <c r="N11">
+        <f>AVERAGE(I11:M11)</f>
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="M6">
-        <v>29</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>213</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>168</v>
+      </c>
+      <c r="F12">
+        <v>234</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(B12:F12)</f>
+        <v>221.8</v>
+      </c>
+      <c r="I12">
+        <v>229</v>
+      </c>
+      <c r="J12">
+        <v>257</v>
+      </c>
+      <c r="K12">
+        <v>246</v>
+      </c>
+      <c r="L12">
+        <v>232</v>
+      </c>
+      <c r="M12">
+        <v>245</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(I12:M12)</f>
+        <v>241.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>126</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(B13:F13)</f>
+        <v>98.8</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <v>146</v>
+      </c>
+      <c r="K13">
+        <v>155</v>
+      </c>
+      <c r="L13">
+        <v>114</v>
+      </c>
+      <c r="M13">
+        <v>151</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(I13:M13)</f>
+        <v>143.19999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>159</v>
+      </c>
+      <c r="C14">
+        <v>162</v>
+      </c>
+      <c r="D14">
+        <v>164</v>
+      </c>
+      <c r="E14">
+        <v>162</v>
+      </c>
+      <c r="F14">
+        <v>172</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(B14:F14)</f>
+        <v>163.80000000000001</v>
+      </c>
+      <c r="I14">
+        <v>198</v>
+      </c>
+      <c r="J14">
+        <v>192</v>
+      </c>
+      <c r="K14">
+        <v>154</v>
+      </c>
+      <c r="L14">
+        <v>184</v>
+      </c>
+      <c r="M14">
+        <v>177</v>
+      </c>
+      <c r="N14">
+        <f>AVERAGE(I14:M14)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="B15">
         <v>74</v>
       </c>
-      <c r="C7">
+      <c r="C15">
         <v>69</v>
       </c>
-      <c r="D7">
+      <c r="D15">
         <v>78</v>
       </c>
-      <c r="E7">
+      <c r="E15">
         <v>68</v>
       </c>
-      <c r="F7">
+      <c r="F15">
         <v>75</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="1">AVERAGE(B15:F15)</f>
         <v>72.8</v>
       </c>
-      <c r="I7">
+      <c r="I15">
         <v>90</v>
       </c>
-      <c r="J7">
+      <c r="J15">
         <v>82</v>
       </c>
-      <c r="K7">
+      <c r="K15">
         <v>83</v>
       </c>
-      <c r="L7">
+      <c r="L15">
         <v>91</v>
       </c>
-      <c r="M7">
+      <c r="M15">
         <v>77</v>
       </c>
-      <c r="N7">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>84.6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>230</v>
-      </c>
-      <c r="C8">
-        <v>234</v>
-      </c>
-      <c r="D8">
-        <v>217</v>
-      </c>
-      <c r="E8">
-        <v>222</v>
-      </c>
-      <c r="F8">
-        <v>224</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>225.4</v>
-      </c>
-      <c r="I8">
-        <v>90</v>
-      </c>
-      <c r="J8">
-        <v>127</v>
-      </c>
-      <c r="K8">
-        <v>139</v>
-      </c>
-      <c r="L8">
-        <v>139</v>
-      </c>
-      <c r="M8">
-        <v>147</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>128.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>63</v>
-      </c>
-      <c r="D9">
-        <v>61</v>
-      </c>
-      <c r="E9">
-        <v>66</v>
-      </c>
-      <c r="F9">
-        <v>63</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>61.2</v>
-      </c>
-      <c r="I9">
-        <v>138</v>
-      </c>
-      <c r="J9">
-        <v>137</v>
-      </c>
-      <c r="K9">
-        <v>141</v>
-      </c>
-      <c r="L9">
-        <v>139</v>
-      </c>
-      <c r="M9">
-        <v>145</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>58</v>
-      </c>
-      <c r="C10">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>56</v>
-      </c>
-      <c r="E10">
-        <v>58</v>
-      </c>
-      <c r="F10">
-        <v>53</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>55.6</v>
-      </c>
-      <c r="I10">
-        <v>61</v>
-      </c>
-      <c r="J10">
-        <v>51</v>
-      </c>
-      <c r="K10">
-        <v>57</v>
-      </c>
-      <c r="L10">
-        <v>63</v>
-      </c>
-      <c r="M10">
-        <v>59</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>58.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>38.6</v>
-      </c>
-      <c r="I11">
-        <v>42</v>
-      </c>
-      <c r="J11">
-        <v>41</v>
-      </c>
-      <c r="K11">
-        <v>38</v>
-      </c>
-      <c r="L11">
-        <v>39</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>131</v>
-      </c>
-      <c r="C12">
-        <v>144</v>
-      </c>
-      <c r="D12">
-        <v>138</v>
-      </c>
-      <c r="E12">
-        <v>105</v>
-      </c>
-      <c r="F12">
-        <v>136</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>130.80000000000001</v>
-      </c>
-      <c r="I12">
-        <v>154</v>
-      </c>
-      <c r="J12">
-        <v>157</v>
-      </c>
-      <c r="K12">
-        <v>159</v>
-      </c>
-      <c r="L12">
-        <v>151</v>
-      </c>
-      <c r="M12">
-        <v>151</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>154.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>159</v>
-      </c>
-      <c r="C13">
-        <v>162</v>
-      </c>
-      <c r="D13">
-        <v>164</v>
-      </c>
-      <c r="E13">
-        <v>162</v>
-      </c>
-      <c r="F13">
-        <v>172</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>163.80000000000001</v>
-      </c>
-      <c r="I13">
-        <v>198</v>
-      </c>
-      <c r="J13">
-        <v>192</v>
-      </c>
-      <c r="K13">
-        <v>154</v>
-      </c>
-      <c r="L13">
-        <v>184</v>
-      </c>
-      <c r="M13">
-        <v>177</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>122</v>
-      </c>
-      <c r="C14">
-        <v>133</v>
-      </c>
-      <c r="D14">
-        <v>144</v>
-      </c>
-      <c r="E14">
-        <v>118</v>
-      </c>
-      <c r="F14">
-        <v>135</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>130.4</v>
-      </c>
-      <c r="I14">
-        <v>145</v>
-      </c>
-      <c r="J14">
-        <v>161</v>
-      </c>
-      <c r="K14">
-        <v>146</v>
-      </c>
-      <c r="L14">
-        <v>144</v>
-      </c>
-      <c r="M14">
-        <v>155</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>150.19999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>244</v>
-      </c>
-      <c r="C15">
-        <v>213</v>
-      </c>
-      <c r="D15">
-        <v>250</v>
-      </c>
-      <c r="E15">
-        <v>168</v>
-      </c>
-      <c r="F15">
-        <v>234</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>221.8</v>
-      </c>
-      <c r="I15">
-        <v>229</v>
-      </c>
-      <c r="J15">
-        <v>257</v>
-      </c>
-      <c r="K15">
-        <v>246</v>
-      </c>
-      <c r="L15">
-        <v>232</v>
-      </c>
-      <c r="M15">
-        <v>245</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>241.8</v>
-      </c>
-    </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
+      <c r="A16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>126</v>
+        <v>9072</v>
       </c>
       <c r="C16">
-        <v>94</v>
+        <v>9280</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>9281</v>
       </c>
       <c r="E16">
-        <v>123</v>
+        <v>9174</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>9088</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>98.8</v>
+        <f>AVERAGE(B16:F16)</f>
+        <v>9179</v>
       </c>
       <c r="I16">
-        <v>150</v>
+        <v>5082</v>
       </c>
       <c r="J16">
-        <v>146</v>
+        <v>4387</v>
       </c>
       <c r="K16">
-        <v>155</v>
+        <v>4607</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>4963</v>
       </c>
       <c r="M16">
-        <v>151</v>
+        <v>4352</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>143.19999999999999</v>
+        <f>AVERAGE(I16:M16)</f>
+        <v>4678.2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>9072</v>
+        <v>1170</v>
       </c>
       <c r="C17">
-        <v>9280</v>
+        <v>1220</v>
       </c>
       <c r="D17">
-        <v>9281</v>
+        <v>1180</v>
       </c>
       <c r="E17">
-        <v>9174</v>
+        <v>1210</v>
       </c>
       <c r="F17">
-        <v>9088</v>
+        <v>1212</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>9179</v>
+        <f>AVERAGE(B17:F17)</f>
+        <v>1198.4000000000001</v>
       </c>
       <c r="I17">
-        <v>5082</v>
+        <v>1298</v>
       </c>
       <c r="J17">
-        <v>4387</v>
+        <v>1382</v>
       </c>
       <c r="K17">
-        <v>4607</v>
+        <v>1312</v>
       </c>
       <c r="L17">
-        <v>4963</v>
+        <v>1308</v>
       </c>
       <c r="M17">
-        <v>4352</v>
+        <v>1322</v>
       </c>
       <c r="N17">
         <f>AVERAGE(I17:M17)</f>
-        <v>4678.2</v>
+        <v>1324.4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1157,8 +1766,697 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>176</v>
+      </c>
+      <c r="C20">
+        <v>178</v>
+      </c>
+      <c r="D20">
+        <v>198</v>
+      </c>
+      <c r="E20">
+        <v>186</v>
+      </c>
+      <c r="F20">
+        <v>181</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G33" si="2">AVERAGE(B20:F20)</f>
+        <v>183.8</v>
+      </c>
+      <c r="H20">
+        <v>198</v>
+      </c>
+      <c r="I20">
+        <v>192</v>
+      </c>
+      <c r="J20">
+        <v>190</v>
+      </c>
+      <c r="K20">
+        <v>195</v>
+      </c>
+      <c r="L20">
+        <v>193</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(H20:L20)</f>
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE(H21:L21)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>127</v>
+      </c>
+      <c r="D22">
+        <v>139</v>
+      </c>
+      <c r="E22">
+        <v>139</v>
+      </c>
+      <c r="F22">
+        <v>147</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(B22:F22)</f>
+        <v>128.4</v>
+      </c>
+      <c r="H22">
+        <v>230</v>
+      </c>
+      <c r="I22">
+        <v>234</v>
+      </c>
+      <c r="J22">
+        <v>217</v>
+      </c>
+      <c r="K22">
+        <v>222</v>
+      </c>
+      <c r="L22">
+        <v>224</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGE(H22:L22)</f>
+        <v>225.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(B23:F23)</f>
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(H23:L23)</f>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>138</v>
+      </c>
+      <c r="C24">
+        <v>137</v>
+      </c>
+      <c r="D24">
+        <v>141</v>
+      </c>
+      <c r="E24">
+        <v>139</v>
+      </c>
+      <c r="F24">
+        <v>145</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(B24:F24)</f>
+        <v>140</v>
+      </c>
+      <c r="H24">
+        <v>53</v>
+      </c>
+      <c r="I24">
+        <v>63</v>
+      </c>
+      <c r="J24">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>66</v>
+      </c>
+      <c r="L24">
+        <v>63</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(H24:L24)</f>
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(B25:F25)</f>
+        <v>58.2</v>
+      </c>
+      <c r="H25">
+        <v>58</v>
+      </c>
+      <c r="I25">
+        <v>53</v>
+      </c>
+      <c r="J25">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>58</v>
+      </c>
+      <c r="L25">
+        <v>53</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(H25:L25)</f>
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G35" si="3">AVERAGE(B26:F26)</f>
+        <v>32.6</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGE(H26:L26)</f>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(B27:F27)</f>
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>44</v>
+      </c>
+      <c r="L27">
+        <v>46</v>
+      </c>
+      <c r="M27">
+        <f>AVERAGE(H27:L27)</f>
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>154</v>
+      </c>
+      <c r="C28">
+        <v>157</v>
+      </c>
+      <c r="D28">
+        <v>159</v>
+      </c>
+      <c r="E28">
+        <v>151</v>
+      </c>
+      <c r="F28">
+        <v>151</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(B28:F28)</f>
+        <v>154.4</v>
+      </c>
+      <c r="H28">
+        <v>131</v>
+      </c>
+      <c r="I28">
+        <v>144</v>
+      </c>
+      <c r="J28">
+        <v>138</v>
+      </c>
+      <c r="K28">
+        <v>105</v>
+      </c>
+      <c r="L28">
+        <v>136</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(H28:L28)</f>
+        <v>130.80000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>145</v>
+      </c>
+      <c r="C29">
+        <v>161</v>
+      </c>
+      <c r="D29">
+        <v>146</v>
+      </c>
+      <c r="E29">
+        <v>144</v>
+      </c>
+      <c r="F29">
+        <v>155</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(B29:F29)</f>
+        <v>150.19999999999999</v>
+      </c>
+      <c r="H29">
+        <v>122</v>
+      </c>
+      <c r="I29">
+        <v>133</v>
+      </c>
+      <c r="J29">
+        <v>144</v>
+      </c>
+      <c r="K29">
+        <v>118</v>
+      </c>
+      <c r="L29">
+        <v>135</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(H29:L29)</f>
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>229</v>
+      </c>
+      <c r="C30">
+        <v>257</v>
+      </c>
+      <c r="D30">
+        <v>246</v>
+      </c>
+      <c r="E30">
+        <v>232</v>
+      </c>
+      <c r="F30">
+        <v>245</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(B30:F30)</f>
+        <v>241.8</v>
+      </c>
+      <c r="H30">
+        <v>244</v>
+      </c>
+      <c r="I30">
+        <v>213</v>
+      </c>
+      <c r="J30">
+        <v>250</v>
+      </c>
+      <c r="K30">
+        <v>168</v>
+      </c>
+      <c r="L30">
+        <v>234</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(H30:L30)</f>
+        <v>221.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <v>146</v>
+      </c>
+      <c r="D31">
+        <v>155</v>
+      </c>
+      <c r="E31">
+        <v>114</v>
+      </c>
+      <c r="F31">
+        <v>151</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(B31:F31)</f>
+        <v>143.19999999999999</v>
+      </c>
+      <c r="H31">
+        <v>126</v>
+      </c>
+      <c r="I31">
+        <v>94</v>
+      </c>
+      <c r="J31">
+        <v>81</v>
+      </c>
+      <c r="K31">
+        <v>123</v>
+      </c>
+      <c r="L31">
+        <v>70</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(H31:L31)</f>
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>198</v>
+      </c>
+      <c r="C32">
+        <v>192</v>
+      </c>
+      <c r="D32">
+        <v>154</v>
+      </c>
+      <c r="E32">
+        <v>184</v>
+      </c>
+      <c r="F32">
+        <v>177</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(B32:F32)</f>
+        <v>181</v>
+      </c>
+      <c r="H32">
+        <v>159</v>
+      </c>
+      <c r="I32">
+        <v>162</v>
+      </c>
+      <c r="J32">
+        <v>164</v>
+      </c>
+      <c r="K32">
+        <v>162</v>
+      </c>
+      <c r="L32">
+        <v>172</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGE(H32:L32)</f>
+        <v>163.80000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>91</v>
+      </c>
+      <c r="F33">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G35" si="4">AVERAGE(B33:F33)</f>
+        <v>84.6</v>
+      </c>
+      <c r="H33">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>69</v>
+      </c>
+      <c r="J33">
+        <v>78</v>
+      </c>
+      <c r="K33">
+        <v>68</v>
+      </c>
+      <c r="L33">
+        <v>75</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M35" si="5">AVERAGE(H33:L33)</f>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>5082</v>
+      </c>
+      <c r="C34">
+        <v>4387</v>
+      </c>
+      <c r="D34">
+        <v>4607</v>
+      </c>
+      <c r="E34">
+        <v>4963</v>
+      </c>
+      <c r="F34">
+        <v>4352</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(B34:F34)</f>
+        <v>4678.2</v>
+      </c>
+      <c r="H34">
+        <v>9072</v>
+      </c>
+      <c r="I34">
+        <v>9280</v>
+      </c>
+      <c r="J34">
+        <v>9281</v>
+      </c>
+      <c r="K34">
+        <v>9174</v>
+      </c>
+      <c r="L34">
+        <v>9088</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(H34:L34)</f>
+        <v>9179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1298</v>
+      </c>
+      <c r="C35">
+        <v>1382</v>
+      </c>
+      <c r="D35">
+        <v>1312</v>
+      </c>
+      <c r="E35">
+        <v>1308</v>
+      </c>
+      <c r="F35">
+        <v>1322</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(B35:F35)</f>
+        <v>1324.4</v>
+      </c>
+      <c r="H35">
+        <v>1170</v>
+      </c>
+      <c r="I35">
+        <v>1220</v>
+      </c>
+      <c r="J35">
+        <v>1180</v>
+      </c>
+      <c r="K35">
+        <v>1210</v>
+      </c>
+      <c r="L35">
+        <v>1212</v>
+      </c>
+      <c r="M35">
+        <f>AVERAGE(H35:L35)</f>
+        <v>1198.4000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1166,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,10 +4338,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>